--- a/temp/结账历史/2025年/v5-12月.xlsx
+++ b/temp/结账历史/2025年/v5-12月.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
   <si>
     <t>学生</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>先发了1200</t>
+  </si>
+  <si>
+    <t>待发</t>
   </si>
   <si>
     <t>课程</t>
@@ -321,7 +327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +344,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -496,12 +495,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -814,157 +819,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1147,7 +1153,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="实际价格" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="25" maxValue="55" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="55" count="5">
         <n v="25"/>
         <n v="50"/>
         <n v="55"/>
@@ -1156,7 +1162,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="时长" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="1" count="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1" count="3">
         <n v="0.5"/>
         <n v="1"/>
         <m/>
@@ -1715,7 +1721,16 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -2058,10 +2073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2153,6 +2168,23 @@
       </c>
       <c r="B13" s="2">
         <v>2095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM(B13:B14)</f>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -2186,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2209,16 +2241,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -2232,16 +2264,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -2255,16 +2287,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -2278,16 +2310,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -2301,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -2324,16 +2356,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -2347,16 +2379,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -2370,16 +2402,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -2393,16 +2425,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>55</v>
@@ -2416,16 +2448,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
       </c>
       <c r="F11">
         <v>55</v>
@@ -2439,16 +2471,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -2462,16 +2494,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>25</v>
@@ -2485,16 +2517,16 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -2508,16 +2540,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>55</v>
@@ -2531,16 +2563,16 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -2554,16 +2586,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -2577,16 +2609,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2600,16 +2632,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -2623,16 +2655,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <v>25</v>
@@ -2646,16 +2678,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -2669,16 +2701,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -2692,16 +2724,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -2715,16 +2747,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -2738,16 +2770,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25">
         <v>55</v>
@@ -2761,16 +2793,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -2784,16 +2816,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27">
         <v>50</v>
@@ -2807,16 +2839,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>55</v>
@@ -2830,16 +2862,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <v>25</v>
@@ -2853,16 +2885,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -2876,16 +2908,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -2899,16 +2931,16 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -2922,16 +2954,16 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33">
         <v>50</v>
@@ -2945,16 +2977,16 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <v>25</v>
@@ -2968,16 +3000,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>25</v>
@@ -2991,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F36">
         <v>25</v>
@@ -3014,16 +3046,16 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F37">
         <v>50</v>
@@ -3037,16 +3069,16 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F38">
         <v>25</v>
@@ -3060,16 +3092,16 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>55</v>
@@ -3083,16 +3115,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
         <v>22</v>
       </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <v>25</v>
@@ -3106,16 +3138,16 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41">
         <v>55</v>
@@ -3129,16 +3161,16 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F42">
         <v>25</v>
@@ -3152,16 +3184,16 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F43">
         <v>25</v>
@@ -3175,16 +3207,16 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F44">
         <v>25</v>
@@ -3198,16 +3230,16 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F45">
         <v>50</v>
@@ -3221,16 +3253,16 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
         <v>22</v>
       </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F46">
         <v>25</v>
@@ -3244,16 +3276,16 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
         <v>22</v>
       </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F47">
         <v>25</v>
@@ -3267,16 +3299,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
         <v>22</v>
       </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F48">
         <v>25</v>
@@ -3290,16 +3322,16 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>55</v>
@@ -3313,16 +3345,16 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50">
         <v>55</v>
@@ -3336,16 +3368,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -3359,16 +3391,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F52">
         <v>40</v>
@@ -3382,16 +3414,16 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <v>55</v>
@@ -3405,16 +3437,16 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -3428,16 +3460,16 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F55">
         <v>25</v>
@@ -3451,16 +3483,16 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F56">
         <v>50</v>
@@ -3474,16 +3506,16 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
         <v>22</v>
       </c>
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F57">
         <v>25</v>
@@ -3497,16 +3529,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F58">
         <v>25</v>
@@ -3534,15 +3566,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3550,7 +3582,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>34.5</v>
@@ -3558,7 +3590,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -3586,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
